--- a/Brain/Outsystems/Web Developer Specialization/Brain/Expand Inline n EndcodeSql.xlsx
+++ b/Brain/Outsystems/Web Developer Specialization/Brain/Expand Inline n EndcodeSql.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp.thai.dh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Outsystems\Web Developer Specialization\Brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expand Inline" sheetId="2" r:id="rId1"/>
@@ -377,6 +377,82 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313343</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>199256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22860000"/>
+          <a:ext cx="7857143" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>550838</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>75417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="22860000"/>
+          <a:ext cx="12895238" cy="6266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -647,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -663,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
